--- a/biology/Zoologie/Austromegabalanus_psittacus/Austromegabalanus_psittacus.xlsx
+++ b/biology/Zoologie/Austromegabalanus_psittacus/Austromegabalanus_psittacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austromegabalanus psittacus, appelé picoroco en espagnol, est un crustacé cirripède marin comestible. C'est une espèce de balane géant qui vit fixé aux rochers. Son aire de répartition se limite à la zone intertidale le long de la côte de l'Argentine, du Chili et du sud du Pérou. Il peut atteindre la 30 cm de hauteur et possède une coquille minéralisée composée de calcite. C'est un mets particulièrement apprécié dans la cuisine chilienne.
 </t>
